--- a/Code/Results/Cases/Case_2_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.634963611248423</v>
+        <v>0.5144553327538404</v>
       </c>
       <c r="C2">
-        <v>0.3835867659432211</v>
+        <v>0.143483120846156</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4119115517542724</v>
+        <v>0.6295212807565846</v>
       </c>
       <c r="F2">
-        <v>1.270543407080908</v>
+        <v>1.787587014989356</v>
       </c>
       <c r="G2">
-        <v>0.2029190025589216</v>
+        <v>0.2331284652465868</v>
       </c>
       <c r="H2">
-        <v>0.1726679410782452</v>
+        <v>0.4045847091509742</v>
       </c>
       <c r="I2">
-        <v>0.1119360680293937</v>
+        <v>0.2862892952744467</v>
       </c>
       <c r="J2">
-        <v>0.01369680545782259</v>
+        <v>0.0215090097212709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8813652836033086</v>
+        <v>0.5033101217576785</v>
       </c>
       <c r="N2">
-        <v>0.7126240502982739</v>
+        <v>0.9762013637867071</v>
       </c>
       <c r="O2">
-        <v>0.7427977637870669</v>
+        <v>1.190126071975598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.429904337659423</v>
+        <v>0.4489467493570487</v>
       </c>
       <c r="C3">
-        <v>0.3411645420291336</v>
+        <v>0.1295938597751274</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3781028297408398</v>
+        <v>0.6248243034619492</v>
       </c>
       <c r="F3">
-        <v>1.165996678931506</v>
+        <v>1.77476356758109</v>
       </c>
       <c r="G3">
-        <v>0.1859560623652783</v>
+        <v>0.2315883309147395</v>
       </c>
       <c r="H3">
-        <v>0.1697198540918095</v>
+        <v>0.4071382128668262</v>
       </c>
       <c r="I3">
-        <v>0.1153642378713311</v>
+        <v>0.2904288655679181</v>
       </c>
       <c r="J3">
-        <v>0.01366757198656643</v>
+        <v>0.0215527542838263</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7688455766571209</v>
+        <v>0.4722958032991542</v>
       </c>
       <c r="N3">
-        <v>0.7121393346442417</v>
+        <v>0.9784584358061963</v>
       </c>
       <c r="O3">
-        <v>0.7003500492989616</v>
+        <v>1.191976016832186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.303796816801167</v>
+        <v>0.408576771306997</v>
       </c>
       <c r="C4">
-        <v>0.3150592296301795</v>
+        <v>0.1210138013745592</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3578844256781295</v>
+        <v>0.622233778496863</v>
       </c>
       <c r="F4">
-        <v>1.103907900391292</v>
+        <v>1.767937267232014</v>
       </c>
       <c r="G4">
-        <v>0.1760970249235569</v>
+        <v>0.2308625341639612</v>
       </c>
       <c r="H4">
-        <v>0.1682786013164588</v>
+        <v>0.408917673721426</v>
       </c>
       <c r="I4">
-        <v>0.1178878112793829</v>
+        <v>0.2931774368730871</v>
       </c>
       <c r="J4">
-        <v>0.01365971249193798</v>
+        <v>0.02158559926387937</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7000807839882341</v>
+        <v>0.4533953736997844</v>
       </c>
       <c r="N4">
-        <v>0.7126203752698075</v>
+        <v>0.9802148788764669</v>
       </c>
       <c r="O4">
-        <v>0.6762304783339772</v>
+        <v>1.19401285737618</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.252347558426948</v>
+        <v>0.3920898038851135</v>
       </c>
       <c r="C5">
-        <v>0.3044046562412746</v>
+        <v>0.1175045224172635</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3497720738986132</v>
+        <v>0.6212519556594884</v>
       </c>
       <c r="F5">
-        <v>1.079100702586288</v>
+        <v>1.765418832972941</v>
       </c>
       <c r="G5">
-        <v>0.1722100368284813</v>
+        <v>0.2306219167950161</v>
       </c>
       <c r="H5">
-        <v>0.1677799696684943</v>
+        <v>0.4096960353688672</v>
       </c>
       <c r="I5">
-        <v>0.1190168068124002</v>
+        <v>0.2943494442234424</v>
       </c>
       <c r="J5">
-        <v>0.01365900761027206</v>
+        <v>0.02160049399746811</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6721281079389598</v>
+        <v>0.4457295734653428</v>
       </c>
       <c r="N5">
-        <v>0.7130060391798949</v>
+        <v>0.9810240397697214</v>
       </c>
       <c r="O5">
-        <v>0.6668621648031063</v>
+        <v>1.19506917257813</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.243800607045813</v>
+        <v>0.3893500242425034</v>
       </c>
       <c r="C6">
-        <v>0.3026344266969829</v>
+        <v>0.1169210411391504</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3484324278101809</v>
+        <v>0.6210933857890453</v>
       </c>
       <c r="F6">
-        <v>1.075010378140021</v>
+        <v>1.765016553183628</v>
       </c>
       <c r="G6">
-        <v>0.1715722342948283</v>
+        <v>0.2305852895297207</v>
       </c>
       <c r="H6">
-        <v>0.1677024134848466</v>
+        <v>0.4098284961527341</v>
       </c>
       <c r="I6">
-        <v>0.1192102202741907</v>
+        <v>0.294547190161639</v>
       </c>
       <c r="J6">
-        <v>0.01365904031280252</v>
+        <v>0.02160305861194267</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.667490459888711</v>
+        <v>0.4444588775147977</v>
       </c>
       <c r="N6">
-        <v>0.7130813576923387</v>
+        <v>0.9811640473988632</v>
       </c>
       <c r="O6">
-        <v>0.6653335853474545</v>
+        <v>1.195258232140304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.30310320621183</v>
+        <v>0.4083545659554204</v>
       </c>
       <c r="C7">
-        <v>0.3149156073115904</v>
+        <v>0.1209665256643149</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3577745178153506</v>
+        <v>0.6222202382614697</v>
       </c>
       <c r="F7">
-        <v>1.103571383939226</v>
+        <v>1.767902236534837</v>
       </c>
       <c r="G7">
-        <v>0.1760440865449411</v>
+        <v>0.2308590659878433</v>
       </c>
       <c r="H7">
-        <v>0.168271522732681</v>
+        <v>0.4089279554946472</v>
       </c>
       <c r="I7">
-        <v>0.1179026359188864</v>
+        <v>0.2931930327602998</v>
       </c>
       <c r="J7">
-        <v>0.01365969292233338</v>
+        <v>0.02158579401870142</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6997035377655862</v>
+        <v>0.453291842552936</v>
       </c>
       <c r="N7">
-        <v>0.7126248165525553</v>
+        <v>0.9802254130682755</v>
       </c>
       <c r="O7">
-        <v>0.6761023052157356</v>
+        <v>1.194026187347305</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.56429504099026</v>
+        <v>0.4918992760025276</v>
       </c>
       <c r="C8">
-        <v>0.368970405432691</v>
+        <v>0.1387050347939578</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4001365606957492</v>
+        <v>0.6278408866844103</v>
       </c>
       <c r="F8">
-        <v>1.234037864936283</v>
+        <v>1.78294808863447</v>
       </c>
       <c r="G8">
-        <v>0.1969490360834243</v>
+        <v>0.2325517156295902</v>
       </c>
       <c r="H8">
-        <v>0.1715723711762394</v>
+        <v>0.4054212445880623</v>
       </c>
       <c r="I8">
-        <v>0.1130283445202078</v>
+        <v>0.287673641494143</v>
       </c>
       <c r="J8">
-        <v>0.01368460745394628</v>
+        <v>0.02152285350386762</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8424942625623828</v>
+        <v>0.4925870704318811</v>
       </c>
       <c r="N8">
-        <v>0.712291500194965</v>
+        <v>0.9769028079333779</v>
       </c>
       <c r="O8">
-        <v>0.7277410986203563</v>
+        <v>1.190576772166125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.075367084523009</v>
+        <v>0.6545150870073826</v>
       </c>
       <c r="C9">
-        <v>0.4746100386909973</v>
+        <v>0.1730686826175827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4879324636007851</v>
+        <v>0.6411903915458481</v>
       </c>
       <c r="F9">
-        <v>1.508223813157073</v>
+        <v>1.820768502141576</v>
       </c>
       <c r="G9">
-        <v>0.2427963141347433</v>
+        <v>0.2376219936468331</v>
       </c>
       <c r="H9">
-        <v>0.1811655575856648</v>
+        <v>0.4002233684093355</v>
       </c>
       <c r="I9">
-        <v>0.1070111680827424</v>
+        <v>0.2784947202575481</v>
       </c>
       <c r="J9">
-        <v>0.01381538442151609</v>
+        <v>0.02144670930521286</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.125639075914911</v>
+        <v>0.5707598490532746</v>
       </c>
       <c r="N9">
-        <v>0.7181107161043769</v>
+        <v>0.9733193365094337</v>
       </c>
       <c r="O9">
-        <v>0.8457613040900043</v>
+        <v>1.190975070110298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.450897492671118</v>
+        <v>0.7731985689076737</v>
       </c>
       <c r="C10">
-        <v>0.5521579394738865</v>
+        <v>0.1980489613613088</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5559696589901151</v>
+        <v>0.6524179189058188</v>
       </c>
       <c r="F10">
-        <v>1.723304663290165</v>
+        <v>1.853637867193413</v>
       </c>
       <c r="G10">
-        <v>0.280084057674884</v>
+        <v>0.2424245055813827</v>
       </c>
       <c r="H10">
-        <v>0.1903998684858408</v>
+        <v>0.3974279859112642</v>
       </c>
       <c r="I10">
-        <v>0.1050687386237605</v>
+        <v>0.2727579498780841</v>
       </c>
       <c r="J10">
-        <v>0.01396412335079944</v>
+        <v>0.0214193183045559</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.336443188235535</v>
+        <v>0.6288581517382852</v>
       </c>
       <c r="N10">
-        <v>0.72676632773873</v>
+        <v>0.972464043256366</v>
       </c>
       <c r="O10">
-        <v>0.9446499304924032</v>
+        <v>1.195655748490964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.621924165809219</v>
+        <v>0.8270093143064514</v>
       </c>
       <c r="C11">
-        <v>0.5874604882533561</v>
+        <v>0.2093533064017379</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5878458413919248</v>
+        <v>0.6578341763028916</v>
       </c>
       <c r="F11">
-        <v>1.82469728600546</v>
+        <v>1.869697893469521</v>
       </c>
       <c r="G11">
-        <v>0.2979821757135142</v>
+        <v>0.2448454034763046</v>
       </c>
       <c r="H11">
-        <v>0.1951426352985379</v>
+        <v>0.3963785785008298</v>
       </c>
       <c r="I11">
-        <v>0.1047982184484759</v>
+        <v>0.2703677413222216</v>
       </c>
       <c r="J11">
-        <v>0.01404385246955897</v>
+        <v>0.02141300045667194</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.433155797904732</v>
+        <v>0.655430116526631</v>
       </c>
       <c r="N11">
-        <v>0.7317578366211563</v>
+        <v>0.9724589342257417</v>
       </c>
       <c r="O11">
-        <v>0.9927454601853754</v>
+        <v>1.198742692573177</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.686731008360766</v>
+        <v>0.8473592316366307</v>
       </c>
       <c r="C12">
-        <v>0.6008356573739491</v>
+        <v>0.2136252256700857</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6000637125342223</v>
+        <v>0.6599295624169059</v>
       </c>
       <c r="F12">
-        <v>1.863655002406801</v>
+        <v>1.875938817547024</v>
       </c>
       <c r="G12">
-        <v>0.3049078328758412</v>
+        <v>0.245796257113355</v>
       </c>
       <c r="H12">
-        <v>0.1970225226697124</v>
+        <v>0.3960131512319549</v>
       </c>
       <c r="I12">
-        <v>0.1047906195321495</v>
+        <v>0.2694942729758445</v>
       </c>
       <c r="J12">
-        <v>0.0140758336509208</v>
+        <v>0.02141148644921742</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.469914267996202</v>
+        <v>0.6655123826936915</v>
       </c>
       <c r="N12">
-        <v>0.7338086938137849</v>
+        <v>0.9725120414057926</v>
       </c>
       <c r="O12">
-        <v>1.011446549425472</v>
+        <v>1.200049687346706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.672771549043716</v>
+        <v>0.8429777364382858</v>
       </c>
       <c r="C13">
-        <v>0.5979547166096779</v>
+        <v>0.2127055865662726</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5974256016404524</v>
+        <v>0.6594763108931829</v>
       </c>
       <c r="F13">
-        <v>1.855238875859669</v>
+        <v>1.874587635046282</v>
       </c>
       <c r="G13">
-        <v>0.3034094609932225</v>
+        <v>0.2455899543234779</v>
       </c>
       <c r="H13">
-        <v>0.196613824429491</v>
+        <v>0.3960904310048221</v>
       </c>
       <c r="I13">
-        <v>0.1047879272018584</v>
+        <v>0.2696809808435603</v>
       </c>
       <c r="J13">
-        <v>0.01406886544893382</v>
+        <v>0.02141177352634038</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.461991344462291</v>
+        <v>0.6633401027789603</v>
       </c>
       <c r="N13">
-        <v>0.7333597073965308</v>
+        <v>0.9724981585221286</v>
       </c>
       <c r="O13">
-        <v>1.007396532444432</v>
+        <v>1.199762058337313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.627254919212703</v>
+        <v>0.8286840637442765</v>
       </c>
       <c r="C14">
-        <v>0.5885607147571932</v>
+        <v>0.2097049374535516</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5888479821630241</v>
+        <v>0.6580056760154136</v>
       </c>
       <c r="F14">
-        <v>1.827890776218084</v>
+        <v>1.870208144223099</v>
       </c>
       <c r="G14">
-        <v>0.2985489066379046</v>
+        <v>0.2449229462915241</v>
       </c>
       <c r="H14">
-        <v>0.1952955776303469</v>
+        <v>0.3963478740156603</v>
       </c>
       <c r="I14">
-        <v>0.1047956527846949</v>
+        <v>0.2702952456860821</v>
       </c>
       <c r="J14">
-        <v>0.01404644739568006</v>
+        <v>0.02141285832123252</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.43617711518155</v>
+        <v>0.6562591918017375</v>
       </c>
       <c r="N14">
-        <v>0.7319232873313979</v>
+        <v>0.9724622012366382</v>
       </c>
       <c r="O14">
-        <v>0.9942739777648626</v>
+        <v>1.198847451533197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.599380689589452</v>
+        <v>0.8199252157563137</v>
       </c>
       <c r="C15">
-        <v>0.5828076099453483</v>
+        <v>0.2078658006250294</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5836135251958154</v>
+        <v>0.6571106464593086</v>
       </c>
       <c r="F15">
-        <v>1.811214137519713</v>
+        <v>1.867546332582307</v>
       </c>
       <c r="G15">
-        <v>0.2955913694418371</v>
+        <v>0.244518831310188</v>
       </c>
       <c r="H15">
-        <v>0.1944992239365746</v>
+        <v>0.3965097276377776</v>
       </c>
       <c r="I15">
-        <v>0.1048129413477206</v>
+        <v>0.2706756253329807</v>
       </c>
       <c r="J15">
-        <v>0.01403295039419561</v>
+        <v>0.02141363704210342</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.420383360996965</v>
+        <v>0.6519245246520882</v>
       </c>
       <c r="N15">
-        <v>0.7310646442971063</v>
+        <v>0.9724473393934829</v>
       </c>
       <c r="O15">
-        <v>0.9863008974995182</v>
+        <v>1.198305214355742</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.439725659955968</v>
+        <v>0.7696781969265771</v>
       </c>
       <c r="C16">
-        <v>0.5498516154136439</v>
+        <v>0.1973089799409422</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5539062703030808</v>
+        <v>0.6520701643229287</v>
       </c>
       <c r="F16">
-        <v>1.716754225780292</v>
+        <v>1.852610600290674</v>
       </c>
       <c r="G16">
-        <v>0.2789343343965527</v>
+        <v>0.2422710598300739</v>
       </c>
       <c r="H16">
-        <v>0.1901013252311685</v>
+        <v>0.3975010393140508</v>
       </c>
       <c r="I16">
-        <v>0.1050993164184924</v>
+        <v>0.2729185798749079</v>
       </c>
       <c r="J16">
-        <v>0.01395916026100963</v>
+        <v>0.02141985437768668</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.330140738547797</v>
+        <v>0.6271244422131446</v>
       </c>
       <c r="N16">
-        <v>0.7264620966609954</v>
+        <v>0.9724720887408012</v>
       </c>
       <c r="O16">
-        <v>0.9415728159815728</v>
+        <v>1.195473308067932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.341842668701986</v>
+        <v>0.7388065085892777</v>
       </c>
       <c r="C17">
-        <v>0.5296429125937436</v>
+        <v>0.1908173350853701</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5359285131811689</v>
+        <v>0.6490570555371633</v>
       </c>
       <c r="F17">
-        <v>1.659751428290775</v>
+        <v>1.843731742880649</v>
       </c>
       <c r="G17">
-        <v>0.2689647564667723</v>
+        <v>0.240952727942755</v>
       </c>
       <c r="H17">
-        <v>0.1875463031919793</v>
+        <v>0.3981660977183452</v>
       </c>
       <c r="I17">
-        <v>0.1054366513095601</v>
+        <v>0.2743508382061464</v>
       </c>
       <c r="J17">
-        <v>0.01391702080829482</v>
+        <v>0.02142523828502263</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.275001413746537</v>
+        <v>0.611946610589186</v>
       </c>
       <c r="N17">
-        <v>0.7239148500717931</v>
+        <v>0.9725854911995384</v>
       </c>
       <c r="O17">
-        <v>0.9149586565316383</v>
+        <v>1.193981540728601</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.285560469032589</v>
+        <v>0.7210331629316897</v>
       </c>
       <c r="C18">
-        <v>0.518021605934365</v>
+        <v>0.1870779458505751</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5256744204250907</v>
+        <v>0.6473530629189383</v>
       </c>
       <c r="F18">
-        <v>1.627295868679923</v>
+        <v>1.838729106122372</v>
       </c>
       <c r="G18">
-        <v>0.2633177375869451</v>
+        <v>0.2402166830152908</v>
       </c>
       <c r="H18">
-        <v>0.1861273612996115</v>
+        <v>0.3985695384164174</v>
       </c>
       <c r="I18">
-        <v>0.1056879619018538</v>
+        <v>0.2751952881057669</v>
       </c>
       <c r="J18">
-        <v>0.01389391570674547</v>
+        <v>0.02142891341240549</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.243362448248945</v>
+        <v>0.6032301892858527</v>
       </c>
       <c r="N18">
-        <v>0.7225483723614019</v>
+        <v>0.972686868223775</v>
       </c>
       <c r="O18">
-        <v>0.8999410670588475</v>
+        <v>1.193213637864517</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.266506865549843</v>
+        <v>0.7150125736605446</v>
       </c>
       <c r="C19">
-        <v>0.514087117694487</v>
+        <v>0.1858109048058907</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5222169648654926</v>
+        <v>0.6467811138910449</v>
       </c>
       <c r="F19">
-        <v>1.6163622936715</v>
+        <v>1.837053201647834</v>
       </c>
       <c r="G19">
-        <v>0.2614203377473387</v>
+        <v>0.2399712835172494</v>
       </c>
       <c r="H19">
-        <v>0.1856554540057473</v>
+        <v>0.3987097288237322</v>
       </c>
       <c r="I19">
-        <v>0.1057826931844339</v>
+        <v>0.2754847486832901</v>
       </c>
       <c r="J19">
-        <v>0.01388628559784166</v>
+        <v>0.02143025724471492</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.232662514965483</v>
+        <v>0.6002812864803388</v>
       </c>
       <c r="N19">
-        <v>0.7221023780561637</v>
+        <v>0.9727274070190788</v>
       </c>
       <c r="O19">
-        <v>0.8949049990812341</v>
+        <v>1.192969107852065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.352260566433586</v>
+        <v>0.7420945973327662</v>
       </c>
       <c r="C20">
-        <v>0.5317939132310414</v>
+        <v>0.1915089598074076</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5378332533025727</v>
+        <v>0.6493747979714968</v>
       </c>
       <c r="F20">
-        <v>1.665784858390381</v>
+        <v>1.844666122696893</v>
       </c>
       <c r="G20">
-        <v>0.2700169134882913</v>
+        <v>0.2410907653927694</v>
       </c>
       <c r="H20">
-        <v>0.1878130067532169</v>
+        <v>0.3980931362820996</v>
       </c>
       <c r="I20">
-        <v>0.10539476564173</v>
+        <v>0.2741962337133153</v>
       </c>
       <c r="J20">
-        <v>0.01392138904196116</v>
+        <v>0.02142460532692958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.280863126382926</v>
+        <v>0.6135609265319459</v>
       </c>
       <c r="N20">
-        <v>0.7241757366722368</v>
+        <v>0.9725696790890908</v>
       </c>
       <c r="O20">
-        <v>0.917761458802687</v>
+        <v>1.194131012244327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.640622974388634</v>
+        <v>0.8328832062860556</v>
       </c>
       <c r="C21">
-        <v>0.5913197478842278</v>
+        <v>0.2105865415038295</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5913633295113598</v>
+        <v>0.6584364333212847</v>
       </c>
       <c r="F21">
-        <v>1.835907876880157</v>
+        <v>1.871490181818871</v>
       </c>
       <c r="G21">
-        <v>0.2999724400219463</v>
+        <v>0.245117935773834</v>
       </c>
       <c r="H21">
-        <v>0.1956804520417421</v>
+        <v>0.3962713893253351</v>
       </c>
       <c r="I21">
-        <v>0.1047907543376709</v>
+        <v>0.2701139614670751</v>
       </c>
       <c r="J21">
-        <v>0.01405298310854697</v>
+        <v>0.02141251588938786</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.443755551579187</v>
+        <v>0.6583384870165361</v>
       </c>
       <c r="N21">
-        <v>0.7323407623887874</v>
+        <v>0.9724712702950598</v>
       </c>
       <c r="O21">
-        <v>0.9981147955480765</v>
+        <v>1.199112344904904</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.829341308620144</v>
+        <v>0.8920605714012595</v>
       </c>
       <c r="C22">
-        <v>0.6302649936843068</v>
+        <v>0.2230034828431258</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6272127292017942</v>
+        <v>0.6646173231988683</v>
       </c>
       <c r="F22">
-        <v>1.95039882255972</v>
+        <v>1.889950046524774</v>
       </c>
       <c r="G22">
-        <v>0.3204198386783901</v>
+        <v>0.2479488226008471</v>
       </c>
       <c r="H22">
-        <v>0.2013144002028184</v>
+        <v>0.3952670650173644</v>
       </c>
       <c r="I22">
-        <v>0.1049522097582951</v>
+        <v>0.2676304933056528</v>
       </c>
       <c r="J22">
-        <v>0.01414944520866968</v>
+        <v>0.02140973262523183</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.551014410198775</v>
+        <v>0.6877197919563116</v>
       </c>
       <c r="N22">
-        <v>0.7386183005287279</v>
+        <v>0.97272770351654</v>
       </c>
       <c r="O22">
-        <v>1.053497915652628</v>
+        <v>1.20317266120847</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.72859015316169</v>
+        <v>0.8604914085728979</v>
       </c>
       <c r="C23">
-        <v>0.6094742440497214</v>
+        <v>0.2163811136076674</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.60799524503485</v>
+        <v>0.6612948176483897</v>
       </c>
       <c r="F23">
-        <v>1.888972233326115</v>
+        <v>1.880012661723882</v>
       </c>
       <c r="G23">
-        <v>0.3094224087988522</v>
+        <v>0.2464196781641732</v>
       </c>
       <c r="H23">
-        <v>0.1982603522759376</v>
+        <v>0.3957860444767789</v>
       </c>
       <c r="I23">
-        <v>0.1048128276994404</v>
+        <v>0.2689390522017732</v>
       </c>
       <c r="J23">
-        <v>0.014096986013028</v>
+        <v>0.02141075142007587</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.493688865745355</v>
+        <v>0.6720279307377552</v>
       </c>
       <c r="N23">
-        <v>0.7351785751835536</v>
+        <v>0.9725615475729228</v>
       </c>
       <c r="O23">
-        <v>1.023662230274681</v>
+        <v>1.200931855459714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.347550660762238</v>
+        <v>0.740608129563725</v>
       </c>
       <c r="C24">
-        <v>0.530821455592644</v>
+        <v>0.1911962988534128</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5369718672953354</v>
+        <v>0.6492310585116385</v>
       </c>
       <c r="F24">
-        <v>1.663056163912955</v>
+        <v>1.844243372060745</v>
       </c>
       <c r="G24">
-        <v>0.2695409707212093</v>
+        <v>0.241028290513313</v>
       </c>
       <c r="H24">
-        <v>0.1876922748605381</v>
+        <v>0.3981260564538331</v>
       </c>
       <c r="I24">
-        <v>0.1054135239505278</v>
+        <v>0.2742660649183613</v>
       </c>
       <c r="J24">
-        <v>0.01391941067457658</v>
+        <v>0.02142488968099165</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.27821285630381</v>
+        <v>0.6128310646152215</v>
       </c>
       <c r="N24">
-        <v>0.7240574853733364</v>
+        <v>0.9725767150307121</v>
       </c>
       <c r="O24">
-        <v>0.916493432722632</v>
+        <v>1.194063156680983</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.937156709060474</v>
+        <v>0.610658425533245</v>
       </c>
       <c r="C25">
-        <v>0.4460552104753219</v>
+        <v>0.1638185393583456</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4636108589832659</v>
+        <v>0.6373297497017347</v>
       </c>
       <c r="F25">
-        <v>1.431841893192157</v>
+        <v>1.809645461075405</v>
       </c>
       <c r="G25">
-        <v>0.229809576688325</v>
+        <v>0.2360618628445792</v>
       </c>
       <c r="H25">
-        <v>0.1782080110627717</v>
+        <v>0.4014498000757172</v>
       </c>
       <c r="I25">
-        <v>0.1082279484757045</v>
+        <v>0.2808013415736355</v>
       </c>
       <c r="J25">
-        <v>0.01377096289362711</v>
+        <v>0.02146227465209272</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.048619598260089</v>
+        <v>0.5494942228231139</v>
       </c>
       <c r="N25">
-        <v>0.7158002909319023</v>
+        <v>0.9739759079397174</v>
       </c>
       <c r="O25">
-        <v>0.8118441089260386</v>
+        <v>1.190098279898393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5144553327538404</v>
+        <v>1.634963611248537</v>
       </c>
       <c r="C2">
-        <v>0.143483120846156</v>
+        <v>0.3835867659430505</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6295212807565846</v>
+        <v>0.4119115517542795</v>
       </c>
       <c r="F2">
-        <v>1.787587014989356</v>
+        <v>1.270543407080908</v>
       </c>
       <c r="G2">
-        <v>0.2331284652465868</v>
+        <v>0.2029190025589145</v>
       </c>
       <c r="H2">
-        <v>0.4045847091509742</v>
+        <v>0.1726679410781315</v>
       </c>
       <c r="I2">
-        <v>0.2862892952744467</v>
+        <v>0.1119360680293937</v>
       </c>
       <c r="J2">
-        <v>0.0215090097212709</v>
+        <v>0.01369680545782614</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5033101217576785</v>
+        <v>0.8813652836032944</v>
       </c>
       <c r="N2">
-        <v>0.9762013637867071</v>
+        <v>0.7126240502982739</v>
       </c>
       <c r="O2">
-        <v>1.190126071975598</v>
+        <v>0.7427977637870669</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4489467493570487</v>
+        <v>1.429904337659423</v>
       </c>
       <c r="C3">
-        <v>0.1295938597751274</v>
+        <v>0.3411645420293894</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6248243034619492</v>
+        <v>0.3781028297408255</v>
       </c>
       <c r="F3">
-        <v>1.77476356758109</v>
+        <v>1.165996678931506</v>
       </c>
       <c r="G3">
-        <v>0.2315883309147395</v>
+        <v>0.1859560623652214</v>
       </c>
       <c r="H3">
-        <v>0.4071382128668262</v>
+        <v>0.1697198540918166</v>
       </c>
       <c r="I3">
-        <v>0.2904288655679181</v>
+        <v>0.1153642378713329</v>
       </c>
       <c r="J3">
-        <v>0.0215527542838263</v>
+        <v>0.01366757198662327</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4722958032991542</v>
+        <v>0.7688455766571352</v>
       </c>
       <c r="N3">
-        <v>0.9784584358061963</v>
+        <v>0.7121393346442986</v>
       </c>
       <c r="O3">
-        <v>1.191976016832186</v>
+        <v>0.7003500492990185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.408576771306997</v>
+        <v>1.303796816801253</v>
       </c>
       <c r="C4">
-        <v>0.1210138013745592</v>
+        <v>0.3150592296299379</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.622233778496863</v>
+        <v>0.3578844256781508</v>
       </c>
       <c r="F4">
-        <v>1.767937267232014</v>
+        <v>1.103907900391292</v>
       </c>
       <c r="G4">
-        <v>0.2308625341639612</v>
+        <v>0.1760970249236067</v>
       </c>
       <c r="H4">
-        <v>0.408917673721426</v>
+        <v>0.1682786013163522</v>
       </c>
       <c r="I4">
-        <v>0.2931774368730871</v>
+        <v>0.1178878112793864</v>
       </c>
       <c r="J4">
-        <v>0.02158559926387937</v>
+        <v>0.01365971249193265</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4533953736997844</v>
+        <v>0.7000807839882484</v>
       </c>
       <c r="N4">
-        <v>0.9802148788764669</v>
+        <v>0.7126203752698004</v>
       </c>
       <c r="O4">
-        <v>1.19401285737618</v>
+        <v>0.6762304783339772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3920898038851135</v>
+        <v>1.252347558426919</v>
       </c>
       <c r="C5">
-        <v>0.1175045224172635</v>
+        <v>0.3044046562412319</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6212519556594884</v>
+        <v>0.3497720738986132</v>
       </c>
       <c r="F5">
-        <v>1.765418832972941</v>
+        <v>1.079100702586288</v>
       </c>
       <c r="G5">
-        <v>0.2306219167950161</v>
+        <v>0.1722100368284813</v>
       </c>
       <c r="H5">
-        <v>0.4096960353688672</v>
+        <v>0.1677799696684872</v>
       </c>
       <c r="I5">
-        <v>0.2943494442234424</v>
+        <v>0.1190168068123985</v>
       </c>
       <c r="J5">
-        <v>0.02160049399746811</v>
+        <v>0.0136590076103662</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4457295734653428</v>
+        <v>0.6721281079389669</v>
       </c>
       <c r="N5">
-        <v>0.9810240397697214</v>
+        <v>0.713006039179902</v>
       </c>
       <c r="O5">
-        <v>1.19506917257813</v>
+        <v>0.6668621648031063</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3893500242425034</v>
+        <v>1.24380060704587</v>
       </c>
       <c r="C6">
-        <v>0.1169210411391504</v>
+        <v>0.3026344266972245</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6210933857890453</v>
+        <v>0.3484324278101809</v>
       </c>
       <c r="F6">
-        <v>1.765016553183628</v>
+        <v>1.075010378140021</v>
       </c>
       <c r="G6">
-        <v>0.2305852895297207</v>
+        <v>0.1715722342947856</v>
       </c>
       <c r="H6">
-        <v>0.4098284961527341</v>
+        <v>0.1677024134848324</v>
       </c>
       <c r="I6">
-        <v>0.294547190161639</v>
+        <v>0.1192102202741747</v>
       </c>
       <c r="J6">
-        <v>0.02160305861194267</v>
+        <v>0.01365904031285758</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4444588775147977</v>
+        <v>0.667490459888711</v>
       </c>
       <c r="N6">
-        <v>0.9811640473988632</v>
+        <v>0.7130813576923245</v>
       </c>
       <c r="O6">
-        <v>1.195258232140304</v>
+        <v>0.6653335853474971</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4083545659554204</v>
+        <v>1.303103206211745</v>
       </c>
       <c r="C7">
-        <v>0.1209665256643149</v>
+        <v>0.3149156073115336</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6222202382614697</v>
+        <v>0.3577745178153506</v>
       </c>
       <c r="F7">
-        <v>1.767902236534837</v>
+        <v>1.103571383939226</v>
       </c>
       <c r="G7">
-        <v>0.2308590659878433</v>
+        <v>0.1760440865449411</v>
       </c>
       <c r="H7">
-        <v>0.4089279554946472</v>
+        <v>0.168271522732681</v>
       </c>
       <c r="I7">
-        <v>0.2931930327602998</v>
+        <v>0.1179026359188722</v>
       </c>
       <c r="J7">
-        <v>0.02158579401870142</v>
+        <v>0.01365969292243108</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.453291842552936</v>
+        <v>0.6997035377655649</v>
       </c>
       <c r="N7">
-        <v>0.9802254130682755</v>
+        <v>0.7126248165524913</v>
       </c>
       <c r="O7">
-        <v>1.194026187347305</v>
+        <v>0.6761023052157356</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4918992760025276</v>
+        <v>1.56429504099026</v>
       </c>
       <c r="C8">
-        <v>0.1387050347939578</v>
+        <v>0.3689704054327194</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6278408866844103</v>
+        <v>0.4001365606957066</v>
       </c>
       <c r="F8">
-        <v>1.78294808863447</v>
+        <v>1.234037864936283</v>
       </c>
       <c r="G8">
-        <v>0.2325517156295902</v>
+        <v>0.1969490360834456</v>
       </c>
       <c r="H8">
-        <v>0.4054212445880623</v>
+        <v>0.1715723711762394</v>
       </c>
       <c r="I8">
-        <v>0.287673641494143</v>
+        <v>0.113028344520206</v>
       </c>
       <c r="J8">
-        <v>0.02152285350386762</v>
+        <v>0.01368460745388944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4925870704318811</v>
+        <v>0.8424942625623828</v>
       </c>
       <c r="N8">
-        <v>0.9769028079333779</v>
+        <v>0.7122915001949579</v>
       </c>
       <c r="O8">
-        <v>1.190576772166125</v>
+        <v>0.7277410986204131</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6545150870073826</v>
+        <v>2.075367084523037</v>
       </c>
       <c r="C9">
-        <v>0.1730686826175827</v>
+        <v>0.4746100386905141</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6411903915458481</v>
+        <v>0.4879324636007567</v>
       </c>
       <c r="F9">
-        <v>1.820768502141576</v>
+        <v>1.508223813157073</v>
       </c>
       <c r="G9">
-        <v>0.2376219936468331</v>
+        <v>0.2427963141347433</v>
       </c>
       <c r="H9">
-        <v>0.4002233684093355</v>
+        <v>0.181165557585544</v>
       </c>
       <c r="I9">
-        <v>0.2784947202575481</v>
+        <v>0.1070111680827388</v>
       </c>
       <c r="J9">
-        <v>0.02144670930521286</v>
+        <v>0.01381538442155694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5707598490532746</v>
+        <v>1.125639075914918</v>
       </c>
       <c r="N9">
-        <v>0.9733193365094337</v>
+        <v>0.7181107161043627</v>
       </c>
       <c r="O9">
-        <v>1.190975070110298</v>
+        <v>0.8457613040900185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7731985689076737</v>
+        <v>2.450897492670947</v>
       </c>
       <c r="C10">
-        <v>0.1980489613613088</v>
+        <v>0.5521579394736023</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6524179189058188</v>
+        <v>0.5559696589901364</v>
       </c>
       <c r="F10">
-        <v>1.853637867193413</v>
+        <v>1.723304663290165</v>
       </c>
       <c r="G10">
-        <v>0.2424245055813827</v>
+        <v>0.280084057674955</v>
       </c>
       <c r="H10">
-        <v>0.3974279859112642</v>
+        <v>0.1903998684858266</v>
       </c>
       <c r="I10">
-        <v>0.2727579498780841</v>
+        <v>0.1050687386237641</v>
       </c>
       <c r="J10">
-        <v>0.0214193183045559</v>
+        <v>0.01396412335091135</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6288581517382852</v>
+        <v>1.336443188235549</v>
       </c>
       <c r="N10">
-        <v>0.972464043256366</v>
+        <v>0.7267663277387157</v>
       </c>
       <c r="O10">
-        <v>1.195655748490964</v>
+        <v>0.9446499304923464</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8270093143064514</v>
+        <v>2.621924165809105</v>
       </c>
       <c r="C11">
-        <v>0.2093533064017379</v>
+        <v>0.5874604882536119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6578341763028916</v>
+        <v>0.5878458413919176</v>
       </c>
       <c r="F11">
-        <v>1.869697893469521</v>
+        <v>1.824697286005474</v>
       </c>
       <c r="G11">
-        <v>0.2448454034763046</v>
+        <v>0.2979821757134999</v>
       </c>
       <c r="H11">
-        <v>0.3963785785008298</v>
+        <v>0.1951426352985379</v>
       </c>
       <c r="I11">
-        <v>0.2703677413222216</v>
+        <v>0.1047982184484759</v>
       </c>
       <c r="J11">
-        <v>0.02141300045667194</v>
+        <v>0.01404385246965312</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.655430116526631</v>
+        <v>1.433155797904718</v>
       </c>
       <c r="N11">
-        <v>0.9724589342257417</v>
+        <v>0.731757836621199</v>
       </c>
       <c r="O11">
-        <v>1.198742692573177</v>
+        <v>0.9927454601854038</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8473592316366307</v>
+        <v>2.686731008360766</v>
       </c>
       <c r="C12">
-        <v>0.2136252256700857</v>
+        <v>0.6008356573742049</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6599295624169059</v>
+        <v>0.6000637125342223</v>
       </c>
       <c r="F12">
-        <v>1.875938817547024</v>
+        <v>1.863655002406787</v>
       </c>
       <c r="G12">
-        <v>0.245796257113355</v>
+        <v>0.3049078328758412</v>
       </c>
       <c r="H12">
-        <v>0.3960131512319549</v>
+        <v>0.1970225226697124</v>
       </c>
       <c r="I12">
-        <v>0.2694942729758445</v>
+        <v>0.1047906195321495</v>
       </c>
       <c r="J12">
-        <v>0.02141148644921742</v>
+        <v>0.0140758336509208</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6655123826936915</v>
+        <v>1.469914267996216</v>
       </c>
       <c r="N12">
-        <v>0.9725120414057926</v>
+        <v>0.7338086938137849</v>
       </c>
       <c r="O12">
-        <v>1.200049687346706</v>
+        <v>1.011446549425415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8429777364382858</v>
+        <v>2.67277154904383</v>
       </c>
       <c r="C13">
-        <v>0.2127055865662726</v>
+        <v>0.5979547166101327</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6594763108931829</v>
+        <v>0.5974256016404524</v>
       </c>
       <c r="F13">
-        <v>1.874587635046282</v>
+        <v>1.855238875859655</v>
       </c>
       <c r="G13">
-        <v>0.2455899543234779</v>
+        <v>0.3034094609932225</v>
       </c>
       <c r="H13">
-        <v>0.3960904310048221</v>
+        <v>0.196613824429491</v>
       </c>
       <c r="I13">
-        <v>0.2696809808435603</v>
+        <v>0.1047879272018442</v>
       </c>
       <c r="J13">
-        <v>0.02141177352634038</v>
+        <v>0.01406886544893027</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6633401027789603</v>
+        <v>1.461991344462291</v>
       </c>
       <c r="N13">
-        <v>0.9724981585221286</v>
+        <v>0.7333597073965308</v>
       </c>
       <c r="O13">
-        <v>1.199762058337313</v>
+        <v>1.007396532444432</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8286840637442765</v>
+        <v>2.62725491921276</v>
       </c>
       <c r="C14">
-        <v>0.2097049374535516</v>
+        <v>0.58856071475671</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6580056760154136</v>
+        <v>0.5888479821630099</v>
       </c>
       <c r="F14">
-        <v>1.870208144223099</v>
+        <v>1.827890776218098</v>
       </c>
       <c r="G14">
-        <v>0.2449229462915241</v>
+        <v>0.2985489066379614</v>
       </c>
       <c r="H14">
-        <v>0.3963478740156603</v>
+        <v>0.1952955776302332</v>
       </c>
       <c r="I14">
-        <v>0.2702952456860821</v>
+        <v>0.1047956527846949</v>
       </c>
       <c r="J14">
-        <v>0.02141285832123252</v>
+        <v>0.0140464473957298</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6562591918017375</v>
+        <v>1.43617711518155</v>
       </c>
       <c r="N14">
-        <v>0.9724622012366382</v>
+        <v>0.7319232873314121</v>
       </c>
       <c r="O14">
-        <v>1.198847451533197</v>
+        <v>0.9942739777648626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8199252157563137</v>
+        <v>2.599380689589452</v>
       </c>
       <c r="C15">
-        <v>0.2078658006250294</v>
+        <v>0.5828076099456609</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6571106464593086</v>
+        <v>0.5836135251958368</v>
       </c>
       <c r="F15">
-        <v>1.867546332582307</v>
+        <v>1.811214137519698</v>
       </c>
       <c r="G15">
-        <v>0.244518831310188</v>
+        <v>0.2955913694417802</v>
       </c>
       <c r="H15">
-        <v>0.3965097276377776</v>
+        <v>0.1944992239365604</v>
       </c>
       <c r="I15">
-        <v>0.2706756253329807</v>
+        <v>0.1048129413477064</v>
       </c>
       <c r="J15">
-        <v>0.02141363704210342</v>
+        <v>0.0140329503942489</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6519245246520882</v>
+        <v>1.420383360996979</v>
       </c>
       <c r="N15">
-        <v>0.9724473393934829</v>
+        <v>0.7310646442971063</v>
       </c>
       <c r="O15">
-        <v>1.198305214355742</v>
+        <v>0.9863008974995182</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7696781969265771</v>
+        <v>2.439725659956025</v>
       </c>
       <c r="C16">
-        <v>0.1973089799409422</v>
+        <v>0.5498516154133881</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6520701643229287</v>
+        <v>0.5539062703030808</v>
       </c>
       <c r="F16">
-        <v>1.852610600290674</v>
+        <v>1.716754225780278</v>
       </c>
       <c r="G16">
-        <v>0.2422710598300739</v>
+        <v>0.2789343343965527</v>
       </c>
       <c r="H16">
-        <v>0.3975010393140508</v>
+        <v>0.1901013252311685</v>
       </c>
       <c r="I16">
-        <v>0.2729185798749079</v>
+        <v>0.1050993164184995</v>
       </c>
       <c r="J16">
-        <v>0.02141985437768668</v>
+        <v>0.01395916026102739</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6271244422131446</v>
+        <v>1.330140738547783</v>
       </c>
       <c r="N16">
-        <v>0.9724720887408012</v>
+        <v>0.7264620966610522</v>
       </c>
       <c r="O16">
-        <v>1.195473308067932</v>
+        <v>0.9415728159816297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7388065085892777</v>
+        <v>2.341842668701986</v>
       </c>
       <c r="C17">
-        <v>0.1908173350853701</v>
+        <v>0.5296429125937721</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6490570555371633</v>
+        <v>0.5359285131811475</v>
       </c>
       <c r="F17">
-        <v>1.843731742880649</v>
+        <v>1.659751428290804</v>
       </c>
       <c r="G17">
-        <v>0.240952727942755</v>
+        <v>0.2689647564668292</v>
       </c>
       <c r="H17">
-        <v>0.3981660977183452</v>
+        <v>0.1875463031919793</v>
       </c>
       <c r="I17">
-        <v>0.2743508382061464</v>
+        <v>0.1054366513095601</v>
       </c>
       <c r="J17">
-        <v>0.02142523828502263</v>
+        <v>0.0139170208083268</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.611946610589186</v>
+        <v>1.275001413746566</v>
       </c>
       <c r="N17">
-        <v>0.9725854911995384</v>
+        <v>0.7239148500717931</v>
       </c>
       <c r="O17">
-        <v>1.193981540728601</v>
+        <v>0.9149586565316383</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7210331629316897</v>
+        <v>2.285560469032703</v>
       </c>
       <c r="C18">
-        <v>0.1870779458505751</v>
+        <v>0.5180216059346492</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6473530629189383</v>
+        <v>0.5256744204250978</v>
       </c>
       <c r="F18">
-        <v>1.838729106122372</v>
+        <v>1.627295868679923</v>
       </c>
       <c r="G18">
-        <v>0.2402166830152908</v>
+        <v>0.2633177375869522</v>
       </c>
       <c r="H18">
-        <v>0.3985695384164174</v>
+        <v>0.186127361299711</v>
       </c>
       <c r="I18">
-        <v>0.2751952881057669</v>
+        <v>0.105687961901836</v>
       </c>
       <c r="J18">
-        <v>0.02142891341240549</v>
+        <v>0.01389391570668863</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6032301892858527</v>
+        <v>1.243362448248945</v>
       </c>
       <c r="N18">
-        <v>0.972686868223775</v>
+        <v>0.7225483723613735</v>
       </c>
       <c r="O18">
-        <v>1.193213637864517</v>
+        <v>0.8999410670588475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7150125736605446</v>
+        <v>2.266506865549843</v>
       </c>
       <c r="C19">
-        <v>0.1858109048058907</v>
+        <v>0.5140871176947144</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6467811138910449</v>
+        <v>0.5222169648654997</v>
       </c>
       <c r="F19">
-        <v>1.837053201647834</v>
+        <v>1.6163622936715</v>
       </c>
       <c r="G19">
-        <v>0.2399712835172494</v>
+        <v>0.2614203377472819</v>
       </c>
       <c r="H19">
-        <v>0.3987097288237322</v>
+        <v>0.1856554540057473</v>
       </c>
       <c r="I19">
-        <v>0.2754847486832901</v>
+        <v>0.1057826931844339</v>
       </c>
       <c r="J19">
-        <v>0.02143025724471492</v>
+        <v>0.01388628559779193</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6002812864803388</v>
+        <v>1.232662514965469</v>
       </c>
       <c r="N19">
-        <v>0.9727274070190788</v>
+        <v>0.7221023780561637</v>
       </c>
       <c r="O19">
-        <v>1.192969107852065</v>
+        <v>0.8949049990813194</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7420945973327662</v>
+        <v>2.352260566433472</v>
       </c>
       <c r="C20">
-        <v>0.1915089598074076</v>
+        <v>0.5317939132312688</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6493747979714968</v>
+        <v>0.5378332533025656</v>
       </c>
       <c r="F20">
-        <v>1.844666122696893</v>
+        <v>1.665784858390396</v>
       </c>
       <c r="G20">
-        <v>0.2410907653927694</v>
+        <v>0.2700169134882913</v>
       </c>
       <c r="H20">
-        <v>0.3980931362820996</v>
+        <v>0.1878130067532169</v>
       </c>
       <c r="I20">
-        <v>0.2741962337133153</v>
+        <v>0.10539476564173</v>
       </c>
       <c r="J20">
-        <v>0.02142460532692958</v>
+        <v>0.01392138904191853</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6135609265319459</v>
+        <v>1.280863126382954</v>
       </c>
       <c r="N20">
-        <v>0.9725696790890908</v>
+        <v>0.7241757366722226</v>
       </c>
       <c r="O20">
-        <v>1.194131012244327</v>
+        <v>0.917761458802687</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8328832062860556</v>
+        <v>2.640622974388634</v>
       </c>
       <c r="C21">
-        <v>0.2105865415038295</v>
+        <v>0.5913197478842278</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6584364333212847</v>
+        <v>0.5913633295113883</v>
       </c>
       <c r="F21">
-        <v>1.871490181818871</v>
+        <v>1.835907876880128</v>
       </c>
       <c r="G21">
-        <v>0.245117935773834</v>
+        <v>0.2999724400219321</v>
       </c>
       <c r="H21">
-        <v>0.3962713893253351</v>
+        <v>0.1956804520417421</v>
       </c>
       <c r="I21">
-        <v>0.2701139614670751</v>
+        <v>0.1047907543376709</v>
       </c>
       <c r="J21">
-        <v>0.02141251588938786</v>
+        <v>0.01405298310855052</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6583384870165361</v>
+        <v>1.443755551579187</v>
       </c>
       <c r="N21">
-        <v>0.9724712702950598</v>
+        <v>0.7323407623888301</v>
       </c>
       <c r="O21">
-        <v>1.199112344904904</v>
+        <v>0.9981147955480765</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8920605714012595</v>
+        <v>2.829341308620144</v>
       </c>
       <c r="C22">
-        <v>0.2230034828431258</v>
+        <v>0.6302649936845341</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6646173231988683</v>
+        <v>0.62721272920178</v>
       </c>
       <c r="F22">
-        <v>1.889950046524774</v>
+        <v>1.95039882255972</v>
       </c>
       <c r="G22">
-        <v>0.2479488226008471</v>
+        <v>0.3204198386783759</v>
       </c>
       <c r="H22">
-        <v>0.3952670650173644</v>
+        <v>0.2013144002028042</v>
       </c>
       <c r="I22">
-        <v>0.2676304933056528</v>
+        <v>0.1049522097583129</v>
       </c>
       <c r="J22">
-        <v>0.02140973262523183</v>
+        <v>0.01414944520860928</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6877197919563116</v>
+        <v>1.551014410198775</v>
       </c>
       <c r="N22">
-        <v>0.97272770351654</v>
+        <v>0.7386183005287137</v>
       </c>
       <c r="O22">
-        <v>1.20317266120847</v>
+        <v>1.053497915652656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8604914085728979</v>
+        <v>2.728590153161861</v>
       </c>
       <c r="C23">
-        <v>0.2163811136076674</v>
+        <v>0.6094742440497214</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6612948176483897</v>
+        <v>0.6079952450348287</v>
       </c>
       <c r="F23">
-        <v>1.880012661723882</v>
+        <v>1.888972233326115</v>
       </c>
       <c r="G23">
-        <v>0.2464196781641732</v>
+        <v>0.3094224087988664</v>
       </c>
       <c r="H23">
-        <v>0.3957860444767789</v>
+        <v>0.1982603522759376</v>
       </c>
       <c r="I23">
-        <v>0.2689390522017732</v>
+        <v>0.1048128276994227</v>
       </c>
       <c r="J23">
-        <v>0.02141075142007587</v>
+        <v>0.01409698601307419</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6720279307377552</v>
+        <v>1.493688865745355</v>
       </c>
       <c r="N23">
-        <v>0.9725615475729228</v>
+        <v>0.7351785751834825</v>
       </c>
       <c r="O23">
-        <v>1.200931855459714</v>
+        <v>1.023662230274738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.740608129563725</v>
+        <v>2.347550660762124</v>
       </c>
       <c r="C24">
-        <v>0.1911962988534128</v>
+        <v>0.5308214555923882</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6492310585116385</v>
+        <v>0.5369718672953283</v>
       </c>
       <c r="F24">
-        <v>1.844243372060745</v>
+        <v>1.663056163912941</v>
       </c>
       <c r="G24">
-        <v>0.241028290513313</v>
+        <v>0.2695409707212093</v>
       </c>
       <c r="H24">
-        <v>0.3981260564538331</v>
+        <v>0.1876922748605381</v>
       </c>
       <c r="I24">
-        <v>0.2742660649183613</v>
+        <v>0.1054135239505385</v>
       </c>
       <c r="J24">
-        <v>0.02142488968099165</v>
+        <v>0.01391941067461389</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6128310646152215</v>
+        <v>1.278212856303838</v>
       </c>
       <c r="N24">
-        <v>0.9725767150307121</v>
+        <v>0.7240574853733932</v>
       </c>
       <c r="O24">
-        <v>1.194063156680983</v>
+        <v>0.9164934327226604</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.610658425533245</v>
+        <v>1.937156709060446</v>
       </c>
       <c r="C25">
-        <v>0.1638185393583456</v>
+        <v>0.4460552104753788</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6373297497017347</v>
+        <v>0.4636108589833157</v>
       </c>
       <c r="F25">
-        <v>1.809645461075405</v>
+        <v>1.431841893192143</v>
       </c>
       <c r="G25">
-        <v>0.2360618628445792</v>
+        <v>0.2298095766884387</v>
       </c>
       <c r="H25">
-        <v>0.4014498000757172</v>
+        <v>0.1782080110627717</v>
       </c>
       <c r="I25">
-        <v>0.2808013415736355</v>
+        <v>0.1082279484757063</v>
       </c>
       <c r="J25">
-        <v>0.02146227465209272</v>
+        <v>0.01377096289358093</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5494942228231139</v>
+        <v>1.048619598260075</v>
       </c>
       <c r="N25">
-        <v>0.9739759079397174</v>
+        <v>0.7158002909319379</v>
       </c>
       <c r="O25">
-        <v>1.190098279898393</v>
+        <v>0.8118441089260386</v>
       </c>
     </row>
   </sheetData>
